--- a/SortCatalog/res-3317 2016年上海中考物理二模-导出目录.xlsx
+++ b/SortCatalog/res-3317 2016年上海中考物理二模-导出目录.xlsx
@@ -79,46 +79,46 @@
     <t>word导入数量(仅查看非导入属性)</t>
   </si>
   <si>
-    <t>1、2016宝山嘉定二模</t>
-  </si>
-  <si>
-    <t>2、2016崇明二模</t>
-  </si>
-  <si>
-    <t>3、2016长宁金山二模</t>
-  </si>
-  <si>
-    <t>4、2016奉贤二模</t>
-  </si>
-  <si>
-    <t>5、2016虹口二模</t>
-  </si>
-  <si>
-    <t>6、2016黄浦二模</t>
-  </si>
-  <si>
-    <t>7、2016静安青浦二模</t>
-  </si>
-  <si>
-    <t>8、2016闵行二模</t>
-  </si>
-  <si>
-    <t>9、2016浦东新区二模</t>
-  </si>
-  <si>
-    <t>10、2016普陀二模</t>
-  </si>
-  <si>
-    <t>11、2016松江二模</t>
-  </si>
-  <si>
-    <t>12、2016徐汇二模</t>
-  </si>
-  <si>
-    <t>13、2016杨浦二模</t>
-  </si>
-  <si>
-    <t>14、2016闸北二模</t>
+    <t>1、1、2016宝山嘉定二模</t>
+  </si>
+  <si>
+    <t>2、2、2016崇明二模</t>
+  </si>
+  <si>
+    <t>3、3、2016长宁金山二模</t>
+  </si>
+  <si>
+    <t>4、4、2016奉贤二模</t>
+  </si>
+  <si>
+    <t>5、5、2016虹口二模</t>
+  </si>
+  <si>
+    <t>6、6、2016黄浦二模</t>
+  </si>
+  <si>
+    <t>7、7、2016静安青浦二模</t>
+  </si>
+  <si>
+    <t>8、8、2016闵行二模</t>
+  </si>
+  <si>
+    <t>9、9、2016浦东新区二模</t>
+  </si>
+  <si>
+    <t>10、10、2016普陀二模</t>
+  </si>
+  <si>
+    <t>11、11、2016松江二模</t>
+  </si>
+  <si>
+    <t>12、12、2016徐汇二模</t>
+  </si>
+  <si>
+    <t>13、13、2016杨浦二模</t>
+  </si>
+  <si>
+    <t>14、14、2016闸北二模</t>
   </si>
   <si>
     <t>CW2016BBS001</t>
